--- a/GenerateToolbox/Tookit/Preview01.xlsx
+++ b/GenerateToolbox/Tookit/Preview01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>主页</t>
   </si>
@@ -88,71 +88,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox带弹出框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DatePicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读TextBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BILL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextBox带弹出框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DatePicker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读TextBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BILL_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
+    <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,26 +510,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="10.75" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -516,13 +549,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -534,168 +567,189 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="O4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="O7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -706,7 +760,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -717,7 +771,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -727,8 +781,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -738,8 +792,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
@@ -749,8 +803,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
@@ -758,13 +812,205 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
-      <formula1>$Q$1:$Q$5</formula1>
+      <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GenerateToolbox/Tookit/Preview01.xlsx
+++ b/GenerateToolbox/Tookit/Preview01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>主页</t>
   </si>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,14 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BILL_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +165,198 @@
   </si>
   <si>
     <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES_LINESTOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES_LINESTOCK_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR_STOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIC_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTORY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CREATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME_CREATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES线边仓编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES线边仓描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP目标仓编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MesWarehouseDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TarStockCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES线边仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP目标仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能/调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP_BILL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFC_SEMI_WIP_BILL_BARCODE_BILL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MITEM_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAREHOUSE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_WAREHOUSE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_QTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSFER_QTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下仓单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下仓扫描单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过账数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1">
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -549,13 +729,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -567,27 +747,27 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" t="s">
         <v>7</v>
@@ -598,7 +778,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -609,20 +789,20 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
         <v>3</v>
@@ -635,20 +815,20 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
         <v>4</v>
@@ -661,20 +841,20 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -684,17 +864,17 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -704,17 +884,17 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -725,12 +905,12 @@
         <v>9</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="1"/>
     </row>
@@ -739,13 +919,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -753,10 +933,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -764,10 +944,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -775,10 +955,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -786,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -797,10 +977,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -808,10 +988,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -819,10 +999,10 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -841,15 +1021,15 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -859,14 +1039,14 @@
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,19 +1056,19 @@
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -896,10 +1076,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -907,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,8 +1100,8 @@
       <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
+      <c r="C29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -929,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,10 +1131,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,10 +1153,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,10 +1164,10 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,15 +1175,15 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/GenerateToolbox/Tookit/Preview01.xlsx
+++ b/GenerateToolbox/Tookit/Preview01.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="91">
   <si>
     <t>主页</t>
   </si>
@@ -60,14 +63,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BILL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,287 +91,300 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BILL_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
+    <t>生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox带弹出框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DatePicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读TextBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES_LINESTOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES_LINESTOCK_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR_STOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIC_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTORY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CREATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME_CREATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES线边仓编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES线边仓描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP目标仓编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MesWarehouseDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TarStockCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES线边仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP目标仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能/调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP_BILL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFC_SEMI_WIP_BILL_BARCODE_BILL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MITEM_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAREHOUSE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_WAREHOUSE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_QTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSFER_QTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下仓单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下仓扫描单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过账数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextBox带弹出框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DatePicker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读TextBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndexPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES_LINESTOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES_LINESTOCK_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECEIVE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR_STOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR_SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIC_SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FACTORY_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CREATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME_CREATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES线边仓编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES线边仓描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货方编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP目标仓编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MesWarehouseDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TarStockCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES线边仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP目标仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNC_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能/调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP_BILL_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFC_SEMI_WIP_BILL_BARCODE_BILL_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MITEM_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAREHOUSE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO_WAREHOUSE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ_QTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSFER_QTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料凭证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下仓单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下仓扫描单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过账数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建日期</t>
+  </si>
+  <si>
+    <t>Import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通弹出框</t>
+  </si>
+  <si>
+    <t>nmsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知名弹出框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A1:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,16 +737,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -729,45 +754,45 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
         <v>7</v>
@@ -778,7 +803,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -790,19 +815,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="s">
         <v>3</v>
@@ -816,19 +841,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
         <v>4</v>
@@ -838,23 +863,23 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -865,16 +890,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -885,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -902,134 +927,134 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1040,150 +1065,150 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1196,4 +1221,1586 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>